--- a/GMV/emails.xlsx
+++ b/GMV/emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\minor\GMV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFB0AB2-2243-40DF-9570-D2F219CADAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9F8186-5687-4D21-9C43-B432B5D03B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{160011E3-6711-45ED-B61E-3D72D205575B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ravivarma25052@gmail.com</t>
   </si>
@@ -39,7 +39,10 @@
     <t>sahitya3066@gmail.com</t>
   </si>
   <si>
-    <t>sastaguvvu25@gmail.c</t>
+    <t>sastaguvvu25@gmail.com</t>
+  </si>
+  <si>
+    <t>emails</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D51877-F1A7-4B90-926B-0873E1CFAE69}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -413,38 +416,73 @@
     <col min="1" max="1" width="28.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{C0E69167-1256-4569-8FD9-D38CAD084836}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{DEA61343-589E-4054-8EDB-BFDF04B8CA55}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{80119E91-30AA-4325-B669-31C1A82B2CBC}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{1AE665C0-924E-43C6-B5E0-F1488CFCE47C}"/>
-    <hyperlink ref="A3" r:id="rId5" xr:uid="{41C8E857-8C6E-49CD-B46C-4486B36F5C29}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C0E69167-1256-4569-8FD9-D38CAD084836}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{80119E91-30AA-4325-B669-31C1A82B2CBC}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{1AE665C0-924E-43C6-B5E0-F1488CFCE47C}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{DEA61343-589E-4054-8EDB-BFDF04B8CA55}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{41C8E857-8C6E-49CD-B46C-4486B36F5C29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
